--- a/zzz_lib/code and data/data/Excel/care_provider_datum.xlsx
+++ b/zzz_lib/code and data/data/Excel/care_provider_datum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9eaf80618f9c5e5a/Work Items/TheCareBoard/zzz_lib/code and data/data/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9eaf80618f9c5e5a/Work Items/TheCareBoard/zzz_lib/code and data/data/CSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF26123C-249F-454A-8C21-E166422056A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8E229A4-BE78-48DF-80B7-80CCE9EF2905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{331C08B0-A80E-47F1-A370-0C677D62B89E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E61EC217-0985-4584-A891-EE945EB1D5AA}"/>
   </bookViews>
   <sheets>
     <sheet name="care_provider_datum" sheetId="1" r:id="rId1"/>
@@ -951,10 +951,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B858F0E7-931C-4D4D-AB49-964581D9AA3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91751DDF-089C-4457-9307-46D77008EAF2}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/zzz_lib/code and data/data/Excel/care_provider_datum.xlsx
+++ b/zzz_lib/code and data/data/Excel/care_provider_datum.xlsx
@@ -5,17 +5,33 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9eaf80618f9c5e5a/Work Items/TheCareBoard/zzz_lib/code and data/data/CSV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9eaf80618f9c5e5a/Work Items/TheCareBoard/zzz_lib/code and data/data/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8E229A4-BE78-48DF-80B7-80CCE9EF2905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{D8E229A4-BE78-48DF-80B7-80CCE9EF2905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6152D65E-CF1D-4AC3-BB13-10D632F225E4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E61EC217-0985-4584-A891-EE945EB1D5AA}"/>
   </bookViews>
   <sheets>
     <sheet name="care_provider_datum" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">care_provider_datum!$A$1:$H$41</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -952,13 +968,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91751DDF-089C-4457-9307-46D77008EAF2}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1064,7 +1085,7 @@
         <v>2945803015.8000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1090,7 +1111,7 @@
         <v>665304308.05714297</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1116,7 +1137,7 @@
         <v>1100776025.4857099</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1220,7 +1241,7 @@
         <v>945484021.88571405</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1246,7 +1267,7 @@
         <v>572621674.20000005</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1272,7 +1293,7 @@
         <v>365704954.28571397</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1324,7 +1345,7 @@
         <v>8930859180.8571396</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1376,7 +1397,7 @@
         <v>15059454225.342899</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1402,7 +1423,7 @@
         <v>7759378645.8000002</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1428,7 +1449,7 @@
         <v>8446975234.3930397</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1454,7 +1475,7 @@
         <v>10349755362.707399</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1480,7 +1501,7 @@
         <v>3707252901.6293001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1506,7 +1527,7 @@
         <v>143617978.380101</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1532,7 +1553,7 @@
         <v>341655761.58184397</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1558,7 +1579,7 @@
         <v>20162550234.026299</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1584,7 +1605,7 @@
         <v>1652919611.5536799</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1610,7 +1631,7 @@
         <v>927451973.75853896</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1636,7 +1657,7 @@
         <v>1202303679.8798499</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1662,7 +1683,7 @@
         <v>964278502.39907598</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1688,7 +1709,7 @@
         <v>4828108189.5118799</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1714,7 +1735,7 @@
         <v>6630946914.9047804</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1740,7 +1761,7 @@
         <v>1792825466.54689</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1766,7 +1787,7 @@
         <v>73360897.166131198</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1792,7 +1813,7 @@
         <v>130946119.86619601</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1818,7 +1839,7 @@
         <v>13469591837.034</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1844,7 +1865,7 @@
         <v>811058547.50073302</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1870,7 +1891,7 @@
         <v>393438311.94463998</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1896,7 +1917,7 @@
         <v>826275691.94910395</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1922,7 +1943,7 @@
         <v>532345867.92846602</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1948,7 +1969,7 @@
         <v>33080201715.405201</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1974,7 +1995,7 @@
         <v>94636138435.668304</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2000,7 +2021,7 @@
         <v>29825367865.203098</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2027,6 +2048,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H41" xr:uid="{91751DDF-089C-4457-9307-46D77008EAF2}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="other"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>